--- a/dados/ANM_CEFM.xlsx
+++ b/dados/ANM_CEFM.xlsx
@@ -14,7 +14,7 @@
   </sheets>
   <calcPr calcId="145621"/>
   <pivotCaches>
-    <pivotCache cacheId="4" r:id="rId5"/>
+    <pivotCache cacheId="0" r:id="rId5"/>
   </pivotCaches>
 </workbook>
 </file>
@@ -611,10 +611,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="dd\/mm\/yyyy"/>
-    <numFmt numFmtId="170" formatCode="0.0%"/>
+    <numFmt numFmtId="164" formatCode="dd\/mm\/yyyy"/>
+    <numFmt numFmtId="165" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -641,6 +641,13 @@
       <color rgb="FF000000"/>
       <name val="Trebuchet MS"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -683,23 +690,25 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -11142,7 +11151,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="4" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="A3:N21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="26">
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -11639,7 +11648,8 @@
   <dimension ref="A1:K45"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <pane ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11661,16 +11671,16 @@
       <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="A2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
     </row>
@@ -11688,6 +11698,7 @@
         <v>3</v>
       </c>
     </row>
+    <row r="4" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>132</v>
@@ -11703,50 +11714,50 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="4">
+    <row r="7" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="14">
         <v>0.01</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="15" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="4">
+      <c r="G7" s="14"/>
+    </row>
+    <row r="8" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="14">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="15" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A9" s="4">
+      <c r="G8" s="14"/>
+    </row>
+    <row r="9" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="14">
         <v>0.02</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="15" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A10" s="4">
+      <c r="G9" s="14"/>
+    </row>
+    <row r="10" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="14">
         <v>0.03</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="15" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="4">
+    <row r="11" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A11" s="14">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="15" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -11755,10 +11766,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="7"/>
+      <c r="B14" s="12"/>
       <c r="C14" s="5" t="s">
         <v>121</v>
       </c>
@@ -11767,10 +11778,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="6" t="s">
+      <c r="A15" s="13" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="13"/>
       <c r="C15" t="s">
         <v>122</v>
       </c>
@@ -11779,10 +11790,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="6" t="s">
+      <c r="A16" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="6"/>
+      <c r="B16" s="13"/>
       <c r="C16" t="s">
         <v>123</v>
       </c>
@@ -11790,7 +11801,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
@@ -11799,37 +11810,37 @@
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
+      <c r="A19" s="6" t="s">
         <v>69</v>
       </c>
-      <c r="B19" s="8" t="s">
+      <c r="B19" s="6" t="s">
         <v>70</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="C19" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="D19" s="6" t="s">
         <v>72</v>
       </c>
-      <c r="E19" s="8" t="s">
+      <c r="E19" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="F19" s="8" t="s">
+      <c r="F19" s="6" t="s">
         <v>74</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="G19" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="H19" s="8" t="s">
+      <c r="H19" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="I19" s="8" t="s">
+      <c r="I19" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="J19" s="8" t="s">
+      <c r="J19" s="6" t="s">
         <v>76</v>
       </c>
-      <c r="K19" s="10" t="s">
+      <c r="K19" s="8" t="s">
         <v>131</v>
       </c>
     </row>
@@ -12621,7 +12632,8 @@
     <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -12630,7 +12642,7 @@
   <dimension ref="A1:Z368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="Q2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="12" ySplit="1" topLeftCell="Q290" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F361" sqref="F361"/>
@@ -55539,23 +55551,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="12">
+      <c r="B1" s="10">
         <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="9" t="s">
         <v>37</v>
       </c>
       <c r="B4" t="s">
@@ -55602,21 +55614,21 @@
       <c r="A5" t="s">
         <v>11</v>
       </c>
-      <c r="B5" s="13"/>
-      <c r="C5" s="13"/>
-      <c r="D5" s="13"/>
-      <c r="E5" s="13"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="13"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="13"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="13"/>
-      <c r="L5" s="13"/>
-      <c r="M5" s="13">
-        <v>0</v>
-      </c>
-      <c r="N5" s="13">
+      <c r="B5" s="11"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="11"/>
+      <c r="E5" s="11"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11">
+        <v>0</v>
+      </c>
+      <c r="N5" s="11">
         <v>0</v>
       </c>
     </row>
@@ -55624,21 +55636,21 @@
       <c r="A6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="13"/>
-      <c r="E6" s="13"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="13"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="13">
+      <c r="B6" s="11"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="11"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11">
         <v>464485.24</v>
       </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="13"/>
-      <c r="N6" s="13">
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11">
         <v>464485.24</v>
       </c>
     </row>
@@ -55646,21 +55658,21 @@
       <c r="A7" t="s">
         <v>16</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="13"/>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="13"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="13"/>
-      <c r="L7" s="13"/>
-      <c r="M7" s="13">
-        <v>0</v>
-      </c>
-      <c r="N7" s="13">
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11">
+        <v>0</v>
+      </c>
+      <c r="N7" s="11">
         <v>0</v>
       </c>
     </row>
@@ -55668,23 +55680,23 @@
       <c r="A8" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="13"/>
-      <c r="C8" s="13">
+      <c r="B8" s="11"/>
+      <c r="C8" s="11">
         <v>70512.55</v>
       </c>
-      <c r="D8" s="13"/>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
-      <c r="H8" s="13">
+      <c r="D8" s="11"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11">
         <v>208257.2</v>
       </c>
-      <c r="I8" s="13"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="13"/>
-      <c r="L8" s="13"/>
-      <c r="M8" s="13"/>
-      <c r="N8" s="13">
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="11">
         <v>278769.75</v>
       </c>
     </row>
@@ -55692,21 +55704,21 @@
       <c r="A9" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="13"/>
-      <c r="C9" s="13"/>
-      <c r="D9" s="13"/>
-      <c r="E9" s="13"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="13"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="13"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="13"/>
-      <c r="L9" s="13"/>
-      <c r="M9" s="13">
-        <v>0</v>
-      </c>
-      <c r="N9" s="13">
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11">
+        <v>0</v>
+      </c>
+      <c r="N9" s="11">
         <v>0</v>
       </c>
     </row>
@@ -55714,25 +55726,25 @@
       <c r="A10" t="s">
         <v>19</v>
       </c>
-      <c r="B10" s="13"/>
-      <c r="C10" s="13">
+      <c r="B10" s="11"/>
+      <c r="C10" s="11">
         <v>443.4</v>
       </c>
-      <c r="D10" s="13">
+      <c r="D10" s="11">
         <v>624.86</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="11">
         <v>571.07000000000005</v>
       </c>
-      <c r="F10" s="13"/>
-      <c r="G10" s="13"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="13"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="13"/>
-      <c r="L10" s="13"/>
-      <c r="M10" s="13"/>
-      <c r="N10" s="13">
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+      <c r="N10" s="11">
         <v>1639.33</v>
       </c>
     </row>
@@ -55740,25 +55752,25 @@
       <c r="A11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" s="13">
+      <c r="B11" s="11">
         <v>68358.460000000006</v>
       </c>
-      <c r="C11" s="13"/>
-      <c r="D11" s="13">
+      <c r="C11" s="11"/>
+      <c r="D11" s="11">
         <v>26483.96</v>
       </c>
-      <c r="E11" s="13"/>
-      <c r="F11" s="13"/>
-      <c r="G11" s="13"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="13"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="13"/>
-      <c r="L11" s="13">
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11">
         <v>660.69</v>
       </c>
-      <c r="M11" s="13"/>
-      <c r="N11" s="13">
+      <c r="M11" s="11"/>
+      <c r="N11" s="11">
         <v>95503.110000000015</v>
       </c>
     </row>
@@ -55766,23 +55778,23 @@
       <c r="A12" t="s">
         <v>21</v>
       </c>
-      <c r="B12" s="13"/>
-      <c r="C12" s="13"/>
-      <c r="D12" s="13"/>
-      <c r="E12" s="13"/>
-      <c r="F12" s="13"/>
-      <c r="G12" s="13">
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="11">
         <v>223389.52</v>
       </c>
-      <c r="H12" s="13"/>
-      <c r="I12" s="13">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11">
         <v>9936.26</v>
       </c>
-      <c r="J12" s="13"/>
-      <c r="K12" s="13"/>
-      <c r="L12" s="13"/>
-      <c r="M12" s="13"/>
-      <c r="N12" s="13">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+      <c r="N12" s="11">
         <v>233325.78</v>
       </c>
     </row>
@@ -55790,21 +55802,21 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="13">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11">
         <v>3560.55</v>
       </c>
-      <c r="F13" s="13"/>
-      <c r="G13" s="13"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="13"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="13"/>
-      <c r="L13" s="13"/>
-      <c r="M13" s="13"/>
-      <c r="N13" s="13">
+      <c r="F13" s="11"/>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+      <c r="N13" s="11">
         <v>3560.55</v>
       </c>
     </row>
@@ -55812,21 +55824,21 @@
       <c r="A14" t="s">
         <v>14</v>
       </c>
-      <c r="B14" s="13"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="13"/>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="13"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="13"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="13">
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11">
         <v>16655621.880000001</v>
       </c>
-      <c r="L14" s="13"/>
-      <c r="M14" s="13"/>
-      <c r="N14" s="13">
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
+      <c r="N14" s="11">
         <v>16655621.880000001</v>
       </c>
     </row>
@@ -55834,27 +55846,27 @@
       <c r="A15" t="s">
         <v>23</v>
       </c>
-      <c r="B15" s="13"/>
-      <c r="C15" s="13">
+      <c r="B15" s="11"/>
+      <c r="C15" s="11">
         <v>48945.13</v>
       </c>
-      <c r="D15" s="13"/>
-      <c r="E15" s="13">
+      <c r="D15" s="11"/>
+      <c r="E15" s="11">
         <v>42409.89</v>
       </c>
-      <c r="F15" s="13"/>
-      <c r="G15" s="13"/>
-      <c r="H15" s="13">
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11">
         <v>1166.83</v>
       </c>
-      <c r="I15" s="13"/>
-      <c r="J15" s="13">
+      <c r="I15" s="11"/>
+      <c r="J15" s="11">
         <v>717627.31</v>
       </c>
-      <c r="K15" s="13"/>
-      <c r="L15" s="13"/>
-      <c r="M15" s="13"/>
-      <c r="N15" s="13">
+      <c r="K15" s="11"/>
+      <c r="L15" s="11"/>
+      <c r="M15" s="11"/>
+      <c r="N15" s="11">
         <v>810149.16</v>
       </c>
     </row>
@@ -55862,21 +55874,21 @@
       <c r="A16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="13"/>
-      <c r="D16" s="13"/>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-      <c r="G16" s="13"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="13"/>
-      <c r="J16" s="13"/>
-      <c r="K16" s="13"/>
-      <c r="L16" s="13"/>
-      <c r="M16" s="13">
-        <v>0</v>
-      </c>
-      <c r="N16" s="13">
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+      <c r="J16" s="11"/>
+      <c r="K16" s="11"/>
+      <c r="L16" s="11"/>
+      <c r="M16" s="11">
+        <v>0</v>
+      </c>
+      <c r="N16" s="11">
         <v>0</v>
       </c>
     </row>
@@ -55884,21 +55896,21 @@
       <c r="A17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="13">
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11">
         <v>6902.29</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-      <c r="G17" s="13"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="13"/>
-      <c r="J17" s="13"/>
-      <c r="K17" s="13"/>
-      <c r="L17" s="13"/>
-      <c r="M17" s="13"/>
-      <c r="N17" s="13">
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+      <c r="J17" s="11"/>
+      <c r="K17" s="11"/>
+      <c r="L17" s="11"/>
+      <c r="M17" s="11"/>
+      <c r="N17" s="11">
         <v>6902.29</v>
       </c>
     </row>
@@ -55906,21 +55918,21 @@
       <c r="A18" t="s">
         <v>13</v>
       </c>
-      <c r="B18" s="13"/>
-      <c r="C18" s="13"/>
-      <c r="D18" s="13"/>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-      <c r="G18" s="13"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="13"/>
-      <c r="J18" s="13"/>
-      <c r="K18" s="13"/>
-      <c r="L18" s="13"/>
-      <c r="M18" s="13">
-        <v>0</v>
-      </c>
-      <c r="N18" s="13">
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
+      <c r="L18" s="11"/>
+      <c r="M18" s="11">
+        <v>0</v>
+      </c>
+      <c r="N18" s="11">
         <v>0</v>
       </c>
     </row>
@@ -55928,21 +55940,21 @@
       <c r="A19" t="s">
         <v>26</v>
       </c>
-      <c r="B19" s="13"/>
-      <c r="C19" s="13"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-      <c r="G19" s="13"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="13"/>
-      <c r="J19" s="13"/>
-      <c r="K19" s="13"/>
-      <c r="L19" s="13"/>
-      <c r="M19" s="13">
-        <v>0</v>
-      </c>
-      <c r="N19" s="13">
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="11"/>
+      <c r="H19" s="11"/>
+      <c r="I19" s="11"/>
+      <c r="J19" s="11"/>
+      <c r="K19" s="11"/>
+      <c r="L19" s="11"/>
+      <c r="M19" s="11">
+        <v>0</v>
+      </c>
+      <c r="N19" s="11">
         <v>0</v>
       </c>
     </row>
@@ -55950,21 +55962,21 @@
       <c r="A20" t="s">
         <v>27</v>
       </c>
-      <c r="B20" s="13"/>
-      <c r="C20" s="13"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13">
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11">
         <v>4154423.41</v>
       </c>
-      <c r="G20" s="13"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="13"/>
-      <c r="J20" s="13"/>
-      <c r="K20" s="13"/>
-      <c r="L20" s="13"/>
-      <c r="M20" s="13"/>
-      <c r="N20" s="13">
+      <c r="G20" s="11"/>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11"/>
+      <c r="J20" s="11"/>
+      <c r="K20" s="11"/>
+      <c r="L20" s="11"/>
+      <c r="M20" s="11"/>
+      <c r="N20" s="11">
         <v>4154423.41</v>
       </c>
     </row>
@@ -55972,43 +55984,43 @@
       <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="13">
+      <c r="B21" s="11">
         <v>68358.460000000006</v>
       </c>
-      <c r="C21" s="13">
+      <c r="C21" s="11">
         <v>119901.07999999999</v>
       </c>
-      <c r="D21" s="13">
+      <c r="D21" s="11">
         <v>34011.11</v>
       </c>
-      <c r="E21" s="13">
+      <c r="E21" s="11">
         <v>46541.51</v>
       </c>
-      <c r="F21" s="13">
+      <c r="F21" s="11">
         <v>4154423.41</v>
       </c>
-      <c r="G21" s="13">
+      <c r="G21" s="11">
         <v>223389.52</v>
       </c>
-      <c r="H21" s="13">
+      <c r="H21" s="11">
         <v>209424.03</v>
       </c>
-      <c r="I21" s="13">
+      <c r="I21" s="11">
         <v>9936.26</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <v>717627.31</v>
       </c>
-      <c r="K21" s="13">
+      <c r="K21" s="11">
         <v>17120107.120000001</v>
       </c>
-      <c r="L21" s="13">
+      <c r="L21" s="11">
         <v>660.69</v>
       </c>
-      <c r="M21" s="13">
-        <v>0</v>
-      </c>
-      <c r="N21" s="13">
+      <c r="M21" s="11">
+        <v>0</v>
+      </c>
+      <c r="N21" s="11">
         <v>22704380.5</v>
       </c>
     </row>

--- a/dados/ANM_CEFM.xlsx
+++ b/dados/ANM_CEFM.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="18195" windowHeight="5970"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="18195" windowHeight="5970" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="metadados" sheetId="2" r:id="rId1"/>
@@ -193,7 +193,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3374" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3366" uniqueCount="137">
   <si>
     <t>OURO</t>
   </si>
@@ -597,13 +597,13 @@
     <t>Grand Total</t>
   </si>
   <si>
-    <t>(blank)</t>
-  </si>
-  <si>
     <t>Sum of Total_ano</t>
   </si>
   <si>
     <t>Definições das colunas nas planilhas.</t>
+  </si>
+  <si>
+    <t>(All)</t>
   </si>
 </sst>
 </file>
@@ -690,7 +690,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -701,14 +701,11 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -726,7 +723,7 @@
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="user" refreshedDate="44534.4669818287" createdVersion="4" refreshedVersion="4" minRefreshableVersion="3" recordCount="367">
   <cacheSource type="worksheet">
-    <worksheetSource ref="A1:Z368" sheet="CFEM_municipios_mensal"/>
+    <worksheetSource ref="A1:Z370" sheet="CFEM_municipios_mensal"/>
   </cacheSource>
   <cacheFields count="26">
     <cacheField name="Region" numFmtId="0">
@@ -11152,7 +11149,7 @@
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="4" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="4" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
-  <location ref="A3:N21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <location ref="A5:I21" firstHeaderRow="1" firstDataRow="2" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="26">
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
@@ -11163,7 +11160,7 @@
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisRow" compact="0" outline="0" showAll="0">
+    <pivotField axis="axisPage" compact="0" outline="0" showAll="0">
       <items count="17">
         <item x="0"/>
         <item x="1"/>
@@ -11185,47 +11182,47 @@
       </items>
     </pivotField>
     <pivotField compact="0" outline="0" showAll="0"/>
-    <pivotField axis="axisPage" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
+    <pivotField axis="axisRow" compact="0" outline="0" multipleItemSelectionAllowed="1" showAll="0">
       <items count="15">
-        <item h="1" x="13"/>
-        <item h="1" x="12"/>
-        <item h="1" x="11"/>
-        <item h="1" x="10"/>
-        <item h="1" x="9"/>
-        <item h="1" x="8"/>
-        <item h="1" x="7"/>
-        <item h="1" x="6"/>
-        <item h="1" x="5"/>
-        <item h="1" x="4"/>
-        <item h="1" x="3"/>
-        <item h="1" x="2"/>
+        <item x="13"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="10"/>
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
         <item x="1"/>
-        <item h="1" x="0"/>
+        <item x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
     <pivotField axis="axisCol" compact="0" outline="0" showAll="0">
       <items count="21">
-        <item x="6"/>
-        <item x="3"/>
-        <item x="7"/>
-        <item x="5"/>
-        <item x="10"/>
+        <item h="1" x="6"/>
+        <item h="1" x="3"/>
+        <item h="1" x="7"/>
+        <item h="1" x="5"/>
+        <item h="1" x="10"/>
         <item x="12"/>
-        <item x="18"/>
+        <item h="1" x="18"/>
         <item x="8"/>
         <item x="4"/>
-        <item x="16"/>
-        <item x="17"/>
+        <item h="1" x="16"/>
+        <item h="1" x="17"/>
         <item x="9"/>
-        <item x="19"/>
+        <item h="1" x="19"/>
         <item x="11"/>
         <item x="1"/>
         <item x="14"/>
-        <item x="13"/>
-        <item x="15"/>
-        <item x="2"/>
-        <item x="0"/>
+        <item h="1" x="13"/>
+        <item h="1" x="15"/>
+        <item h="1" x="2"/>
+        <item h="1" x="0"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -11244,9 +11241,9 @@
     <pivotField dataField="1" compact="0" outline="0" showAll="0"/>
   </pivotFields>
   <rowFields count="1">
-    <field x="9"/>
+    <field x="11"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -11289,12 +11286,6 @@
     <i>
       <x v="13"/>
     </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
     <i t="grand">
       <x/>
     </i>
@@ -11302,19 +11293,7 @@
   <colFields count="1">
     <field x="12"/>
   </colFields>
-  <colItems count="13">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
+  <colItems count="8">
     <i>
       <x v="5"/>
     </i>
@@ -11334,17 +11313,14 @@
       <x v="14"/>
     </i>
     <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="19"/>
+      <x v="15"/>
     </i>
     <i t="grand">
       <x/>
     </i>
   </colItems>
   <pageFields count="1">
-    <pageField fld="11" hier="-1"/>
+    <pageField fld="9" hier="-1"/>
   </pageFields>
   <dataFields count="1">
     <dataField name="Sum of Total_ano" fld="25" baseField="0" baseItem="0" numFmtId="4"/>
@@ -11647,9 +11623,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="19" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H10" sqref="H10"/>
+      <selection pane="bottomLeft" activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11714,46 +11690,46 @@
       </c>
       <c r="G6" s="4"/>
     </row>
-    <row r="7" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A7" s="14">
+    <row r="7" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
         <v>0.01</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="G7" s="14"/>
-    </row>
-    <row r="8" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A8" s="14">
+      <c r="G7" s="11"/>
+    </row>
+    <row r="8" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="G8" s="14"/>
-    </row>
-    <row r="9" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A9" s="14">
+      <c r="G8" s="11"/>
+    </row>
+    <row r="9" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
         <v>0.02</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="G9" s="14"/>
-    </row>
-    <row r="10" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A10" s="14">
+      <c r="G9" s="11"/>
+    </row>
+    <row r="10" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
         <v>0.03</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="12" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="15" customFormat="1" ht="12" x14ac:dyDescent="0.2">
-      <c r="A11" s="14">
+    <row r="11" spans="1:7" s="12" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="12" t="s">
         <v>118</v>
       </c>
     </row>
@@ -11766,10 +11742,10 @@
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="12" t="s">
+      <c r="A14" s="13" t="s">
         <v>120</v>
       </c>
-      <c r="B14" s="12"/>
+      <c r="B14" s="13"/>
       <c r="C14" s="5" t="s">
         <v>121</v>
       </c>
@@ -11778,10 +11754,10 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
+      <c r="A15" s="14" t="s">
         <v>129</v>
       </c>
-      <c r="B15" s="13"/>
+      <c r="B15" s="14"/>
       <c r="C15" t="s">
         <v>122</v>
       </c>
@@ -11790,10 +11766,10 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
+      <c r="A16" s="14" t="s">
         <v>130</v>
       </c>
-      <c r="B16" s="13"/>
+      <c r="B16" s="14"/>
       <c r="C16" t="s">
         <v>123</v>
       </c>
@@ -11806,7 +11782,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
@@ -12639,13 +12615,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z368"/>
+  <dimension ref="A1:Z370"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="12" ySplit="1" topLeftCell="Q290" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="12" ySplit="1" topLeftCell="M314" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="L1" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F361" sqref="F361"/>
+      <selection pane="bottomRight" activeCell="M324" sqref="M324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -38162,163 +38138,163 @@
       </c>
     </row>
     <row r="322" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A322">
-        <v>1</v>
-      </c>
-      <c r="B322" t="s">
+      <c r="A322" s="1">
+        <v>1</v>
+      </c>
+      <c r="B322" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C322" t="s">
-        <v>11</v>
-      </c>
-      <c r="D322">
-        <v>16</v>
-      </c>
-      <c r="E322" t="s">
+      <c r="C322" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D322" s="1">
+        <v>16</v>
+      </c>
+      <c r="E322" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F322" t="s">
         <v>68</v>
       </c>
-      <c r="G322">
-        <v>16</v>
-      </c>
-      <c r="H322">
-        <v>160053</v>
-      </c>
-      <c r="I322">
-        <v>1600535</v>
-      </c>
-      <c r="J322" t="s">
-        <v>23</v>
+      <c r="G322" s="1">
+        <v>16</v>
+      </c>
+      <c r="H322" s="1">
+        <v>160050</v>
+      </c>
+      <c r="I322" s="1">
+        <v>1600501</v>
+      </c>
+      <c r="J322" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K322">
         <v>2010</v>
       </c>
-      <c r="L322">
+      <c r="L322" s="1">
         <v>2010</v>
       </c>
       <c r="M322" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N322">
-        <v>2640.44</v>
+        <v>464178.61</v>
       </c>
       <c r="O322">
-        <v>1165.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="P322">
-        <v>924.4</v>
+        <v>1092670.78</v>
       </c>
       <c r="Q322">
-        <v>1310.5999999999999</v>
+        <v>381554.28</v>
       </c>
       <c r="R322">
-        <v>889</v>
+        <v>393243.53</v>
       </c>
       <c r="S322">
-        <v>1207.6600000000001</v>
+        <v>1199770.1399999999</v>
       </c>
       <c r="T322">
-        <v>1038.8</v>
+        <v>621905.77</v>
       </c>
       <c r="U322">
-        <v>3899.48</v>
+        <v>742743.1</v>
       </c>
       <c r="V322">
-        <v>1522.42</v>
+        <v>908290.32</v>
       </c>
       <c r="W322">
-        <v>480</v>
-      </c>
-      <c r="X322">
-        <v>855.53</v>
+        <v>0</v>
+      </c>
+      <c r="X322" s="1">
+        <v>1083626.8</v>
       </c>
       <c r="Y322">
-        <v>1880.71</v>
+        <v>2445384.29</v>
       </c>
       <c r="Z322">
-        <v>17814.64</v>
+        <v>9333367.6199999992</v>
       </c>
     </row>
     <row r="323" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A323">
-        <v>1</v>
-      </c>
-      <c r="B323" t="s">
+      <c r="A323" s="1">
+        <v>1</v>
+      </c>
+      <c r="B323" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C323" t="s">
-        <v>11</v>
-      </c>
-      <c r="D323">
-        <v>16</v>
-      </c>
-      <c r="E323" t="s">
+      <c r="C323" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D323" s="1">
+        <v>16</v>
+      </c>
+      <c r="E323" s="1" t="s">
         <v>12</v>
       </c>
       <c r="F323" t="s">
         <v>68</v>
       </c>
-      <c r="G323">
-        <v>16</v>
-      </c>
-      <c r="H323">
-        <v>160053</v>
-      </c>
-      <c r="I323">
-        <v>1600535</v>
-      </c>
-      <c r="J323" t="s">
-        <v>23</v>
+      <c r="G323" s="1">
+        <v>16</v>
+      </c>
+      <c r="H323" s="1">
+        <v>160050</v>
+      </c>
+      <c r="I323" s="1">
+        <v>1600501</v>
+      </c>
+      <c r="J323" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="K323">
         <v>2010</v>
       </c>
-      <c r="L323">
+      <c r="L323" s="1">
         <v>2010</v>
       </c>
       <c r="M323" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N323">
-        <v>590.49</v>
+        <v>0</v>
       </c>
       <c r="O323">
-        <v>352.8</v>
+        <v>23832.51</v>
       </c>
       <c r="P323">
-        <v>979.95</v>
+        <v>32.58</v>
       </c>
       <c r="Q323">
-        <v>169.6</v>
+        <v>49007.08</v>
       </c>
       <c r="R323">
-        <v>396</v>
+        <v>27285.15</v>
       </c>
       <c r="S323">
-        <v>1857.6</v>
+        <v>22977.55</v>
       </c>
       <c r="T323">
-        <v>1118.5999999999999</v>
+        <v>22306.44</v>
       </c>
       <c r="U323">
-        <v>332.8</v>
+        <v>20713.59</v>
       </c>
       <c r="V323">
-        <v>550.4</v>
+        <v>8351.16</v>
       </c>
       <c r="W323">
-        <v>2882.73</v>
-      </c>
-      <c r="X323">
-        <v>4564.91</v>
-      </c>
-      <c r="Y323">
-        <v>4994</v>
+        <v>0</v>
+      </c>
+      <c r="X323" s="1">
+        <v>0</v>
+      </c>
+      <c r="Y323" s="1">
+        <v>0</v>
       </c>
       <c r="Z323">
-        <v>18789.88</v>
+        <v>174506.06</v>
       </c>
     </row>
     <row r="324" spans="1:26" x14ac:dyDescent="0.25">
@@ -38359,46 +38335,46 @@
         <v>2010</v>
       </c>
       <c r="M324" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N324">
-        <v>0</v>
+        <v>2640.44</v>
       </c>
       <c r="O324">
-        <v>0</v>
+        <v>1165.5999999999999</v>
       </c>
       <c r="P324">
-        <v>44911.19</v>
+        <v>924.4</v>
       </c>
       <c r="Q324">
-        <v>0</v>
+        <v>1310.5999999999999</v>
       </c>
       <c r="R324">
-        <v>0</v>
+        <v>889</v>
       </c>
       <c r="S324">
-        <v>0</v>
+        <v>1207.6600000000001</v>
       </c>
       <c r="T324">
-        <v>0</v>
+        <v>1038.8</v>
       </c>
       <c r="U324">
-        <v>0</v>
+        <v>3899.48</v>
       </c>
       <c r="V324">
-        <v>0</v>
+        <v>1522.42</v>
       </c>
       <c r="W324">
-        <v>49272.93</v>
+        <v>480</v>
       </c>
       <c r="X324">
-        <v>9931.16</v>
+        <v>855.53</v>
       </c>
       <c r="Y324">
-        <v>0</v>
+        <v>1880.71</v>
       </c>
       <c r="Z324">
-        <v>104115.28</v>
+        <v>17814.64</v>
       </c>
     </row>
     <row r="325" spans="1:26" x14ac:dyDescent="0.25">
@@ -38439,46 +38415,46 @@
         <v>2010</v>
       </c>
       <c r="M325" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N325">
-        <v>0</v>
+        <v>590.49</v>
       </c>
       <c r="O325">
-        <v>0</v>
+        <v>352.8</v>
       </c>
       <c r="P325">
-        <v>2609.64</v>
+        <v>979.95</v>
       </c>
       <c r="Q325">
-        <v>288.06</v>
+        <v>169.6</v>
       </c>
       <c r="R325">
-        <v>0</v>
+        <v>396</v>
       </c>
       <c r="S325">
-        <v>0</v>
+        <v>1857.6</v>
       </c>
       <c r="T325">
-        <v>1616.65</v>
+        <v>1118.5999999999999</v>
       </c>
       <c r="U325">
-        <v>0</v>
+        <v>332.8</v>
       </c>
       <c r="V325">
-        <v>1802.18</v>
+        <v>550.4</v>
       </c>
       <c r="W325">
-        <v>8092.76</v>
+        <v>2882.73</v>
       </c>
       <c r="X325">
-        <v>605.63</v>
+        <v>4564.91</v>
       </c>
       <c r="Y325">
-        <v>71.94</v>
+        <v>4994</v>
       </c>
       <c r="Z325">
-        <v>15086.86</v>
+        <v>18789.88</v>
       </c>
     </row>
     <row r="326" spans="1:26" x14ac:dyDescent="0.25">
@@ -38504,13 +38480,13 @@
         <v>16</v>
       </c>
       <c r="H326">
-        <v>160055</v>
+        <v>160053</v>
       </c>
       <c r="I326">
-        <v>1600550</v>
+        <v>1600535</v>
       </c>
       <c r="J326" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K326">
         <v>2010</v>
@@ -38518,6 +38494,9 @@
       <c r="L326">
         <v>2010</v>
       </c>
+      <c r="M326" t="s">
+        <v>40</v>
+      </c>
       <c r="N326">
         <v>0</v>
       </c>
@@ -38525,7 +38504,7 @@
         <v>0</v>
       </c>
       <c r="P326">
-        <v>0</v>
+        <v>44911.19</v>
       </c>
       <c r="Q326">
         <v>0</v>
@@ -38546,16 +38525,16 @@
         <v>0</v>
       </c>
       <c r="W326">
-        <v>0</v>
+        <v>49272.93</v>
       </c>
       <c r="X326">
-        <v>0</v>
+        <v>9931.16</v>
       </c>
       <c r="Y326">
         <v>0</v>
       </c>
       <c r="Z326">
-        <v>0</v>
+        <v>104115.28</v>
       </c>
     </row>
     <row r="327" spans="1:26" x14ac:dyDescent="0.25">
@@ -38581,13 +38560,13 @@
         <v>16</v>
       </c>
       <c r="H327">
-        <v>160060</v>
+        <v>160053</v>
       </c>
       <c r="I327">
-        <v>1600600</v>
+        <v>1600535</v>
       </c>
       <c r="J327" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K327">
         <v>2010</v>
@@ -38596,7 +38575,7 @@
         <v>2010</v>
       </c>
       <c r="M327" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N327">
         <v>0</v>
@@ -38605,10 +38584,10 @@
         <v>0</v>
       </c>
       <c r="P327">
-        <v>3354.35</v>
+        <v>2609.64</v>
       </c>
       <c r="Q327">
-        <v>0</v>
+        <v>288.06</v>
       </c>
       <c r="R327">
         <v>0</v>
@@ -38617,25 +38596,25 @@
         <v>0</v>
       </c>
       <c r="T327">
-        <v>0</v>
+        <v>1616.65</v>
       </c>
       <c r="U327">
         <v>0</v>
       </c>
       <c r="V327">
-        <v>0</v>
+        <v>1802.18</v>
       </c>
       <c r="W327">
-        <v>0</v>
+        <v>8092.76</v>
       </c>
       <c r="X327">
-        <v>0</v>
+        <v>605.63</v>
       </c>
       <c r="Y327">
-        <v>0</v>
+        <v>71.94</v>
       </c>
       <c r="Z327">
-        <v>3354.35</v>
+        <v>15086.86</v>
       </c>
     </row>
     <row r="328" spans="1:26" x14ac:dyDescent="0.25">
@@ -38661,13 +38640,13 @@
         <v>16</v>
       </c>
       <c r="H328">
-        <v>160005</v>
+        <v>160055</v>
       </c>
       <c r="I328">
-        <v>1600055</v>
+        <v>1600550</v>
       </c>
       <c r="J328" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K328">
         <v>2010</v>
@@ -38738,13 +38717,13 @@
         <v>16</v>
       </c>
       <c r="H329">
-        <v>160070</v>
+        <v>160060</v>
       </c>
       <c r="I329">
-        <v>1600709</v>
+        <v>1600600</v>
       </c>
       <c r="J329" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K329">
         <v>2010</v>
@@ -38752,6 +38731,9 @@
       <c r="L329">
         <v>2010</v>
       </c>
+      <c r="M329" t="s">
+        <v>50</v>
+      </c>
       <c r="N329">
         <v>0</v>
       </c>
@@ -38759,7 +38741,7 @@
         <v>0</v>
       </c>
       <c r="P329">
-        <v>0</v>
+        <v>3354.35</v>
       </c>
       <c r="Q329">
         <v>0</v>
@@ -38789,7 +38771,7 @@
         <v>0</v>
       </c>
       <c r="Z329">
-        <v>0</v>
+        <v>3354.35</v>
       </c>
     </row>
     <row r="330" spans="1:26" x14ac:dyDescent="0.25">
@@ -38815,13 +38797,13 @@
         <v>16</v>
       </c>
       <c r="H330">
-        <v>160080</v>
+        <v>160005</v>
       </c>
       <c r="I330">
-        <v>1600808</v>
+        <v>1600055</v>
       </c>
       <c r="J330" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K330">
         <v>2010</v>
@@ -38829,47 +38811,44 @@
       <c r="L330">
         <v>2010</v>
       </c>
-      <c r="M330" t="s">
-        <v>48</v>
-      </c>
       <c r="N330">
-        <v>269768.25</v>
+        <v>0</v>
       </c>
       <c r="O330">
-        <v>81149.03</v>
+        <v>0</v>
       </c>
       <c r="P330">
-        <v>252999.63</v>
+        <v>0</v>
       </c>
       <c r="Q330">
-        <v>159055.38</v>
+        <v>0</v>
       </c>
       <c r="R330">
-        <v>163221.63</v>
+        <v>0</v>
       </c>
       <c r="S330">
-        <v>163739.64000000001</v>
+        <v>0</v>
       </c>
       <c r="T330">
-        <v>210250.7</v>
+        <v>0</v>
       </c>
       <c r="U330">
-        <v>198262.19</v>
+        <v>0</v>
       </c>
       <c r="V330">
-        <v>202882.88</v>
+        <v>0</v>
       </c>
       <c r="W330">
-        <v>72692.539999999994</v>
+        <v>0</v>
       </c>
       <c r="X330">
-        <v>195399.66</v>
+        <v>0</v>
       </c>
       <c r="Y330">
-        <v>148275.07999999999</v>
+        <v>0</v>
       </c>
       <c r="Z330">
-        <v>2117696.61</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331" spans="1:26" x14ac:dyDescent="0.25">
@@ -38895,28 +38874,25 @@
         <v>16</v>
       </c>
       <c r="H331">
-        <v>160010</v>
+        <v>160070</v>
       </c>
       <c r="I331">
-        <v>1600105</v>
+        <v>1600709</v>
       </c>
       <c r="J331" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K331">
         <v>2010</v>
       </c>
       <c r="L331">
-        <v>2009</v>
-      </c>
-      <c r="M331" t="s">
-        <v>49</v>
+        <v>2010</v>
       </c>
       <c r="N331">
         <v>0</v>
       </c>
       <c r="O331">
-        <v>30514.46</v>
+        <v>0</v>
       </c>
       <c r="P331">
         <v>0</v>
@@ -38949,7 +38925,7 @@
         <v>0</v>
       </c>
       <c r="Z331">
-        <v>30514.46</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332" spans="1:26" x14ac:dyDescent="0.25">
@@ -38975,58 +38951,61 @@
         <v>16</v>
       </c>
       <c r="H332">
-        <v>160020</v>
+        <v>160080</v>
       </c>
       <c r="I332">
-        <v>1600204</v>
+        <v>1600808</v>
       </c>
       <c r="J332" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K332">
         <v>2010</v>
       </c>
       <c r="L332">
-        <v>2009</v>
+        <v>2010</v>
+      </c>
+      <c r="M332" t="s">
+        <v>48</v>
       </c>
       <c r="N332">
-        <v>0</v>
+        <v>269768.25</v>
       </c>
       <c r="O332">
-        <v>0</v>
+        <v>81149.03</v>
       </c>
       <c r="P332">
-        <v>0</v>
+        <v>252999.63</v>
       </c>
       <c r="Q332">
-        <v>0</v>
+        <v>159055.38</v>
       </c>
       <c r="R332">
-        <v>0</v>
+        <v>163221.63</v>
       </c>
       <c r="S332">
-        <v>0</v>
+        <v>163739.64000000001</v>
       </c>
       <c r="T332">
-        <v>0</v>
+        <v>210250.7</v>
       </c>
       <c r="U332">
-        <v>0</v>
+        <v>198262.19</v>
       </c>
       <c r="V332">
-        <v>0</v>
+        <v>202882.88</v>
       </c>
       <c r="W332">
-        <v>0</v>
+        <v>72692.539999999994</v>
       </c>
       <c r="X332">
-        <v>0</v>
+        <v>195399.66</v>
       </c>
       <c r="Y332">
-        <v>0</v>
+        <v>148275.07999999999</v>
       </c>
       <c r="Z332">
-        <v>0</v>
+        <v>2117696.61</v>
       </c>
     </row>
     <row r="333" spans="1:26" x14ac:dyDescent="0.25">
@@ -39052,13 +39031,13 @@
         <v>16</v>
       </c>
       <c r="H333">
-        <v>160021</v>
+        <v>160010</v>
       </c>
       <c r="I333">
-        <v>1600212</v>
+        <v>1600105</v>
       </c>
       <c r="J333" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K333">
         <v>2010</v>
@@ -39066,11 +39045,14 @@
       <c r="L333">
         <v>2009</v>
       </c>
+      <c r="M333" t="s">
+        <v>49</v>
+      </c>
       <c r="N333">
         <v>0</v>
       </c>
       <c r="O333">
-        <v>0</v>
+        <v>30514.46</v>
       </c>
       <c r="P333">
         <v>0</v>
@@ -39103,7 +39085,7 @@
         <v>0</v>
       </c>
       <c r="Z333">
-        <v>0</v>
+        <v>30514.46</v>
       </c>
     </row>
     <row r="334" spans="1:26" x14ac:dyDescent="0.25">
@@ -39129,13 +39111,13 @@
         <v>16</v>
       </c>
       <c r="H334">
-        <v>160023</v>
+        <v>160020</v>
       </c>
       <c r="I334">
-        <v>1600238</v>
+        <v>1600204</v>
       </c>
       <c r="J334" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K334">
         <v>2010</v>
@@ -39143,9 +39125,6 @@
       <c r="L334">
         <v>2009</v>
       </c>
-      <c r="M334" t="s">
-        <v>40</v>
-      </c>
       <c r="N334">
         <v>0</v>
       </c>
@@ -39153,7 +39132,7 @@
         <v>0</v>
       </c>
       <c r="P334">
-        <v>10546.09</v>
+        <v>0</v>
       </c>
       <c r="Q334">
         <v>0</v>
@@ -39183,7 +39162,7 @@
         <v>0</v>
       </c>
       <c r="Z334">
-        <v>10546.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335" spans="1:26" x14ac:dyDescent="0.25">
@@ -39209,13 +39188,13 @@
         <v>16</v>
       </c>
       <c r="H335">
-        <v>160023</v>
+        <v>160021</v>
       </c>
       <c r="I335">
-        <v>1600238</v>
+        <v>1600212</v>
       </c>
       <c r="J335" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="K335">
         <v>2010</v>
@@ -39223,9 +39202,6 @@
       <c r="L335">
         <v>2009</v>
       </c>
-      <c r="M335" t="s">
-        <v>0</v>
-      </c>
       <c r="N335">
         <v>0</v>
       </c>
@@ -39254,7 +39230,7 @@
         <v>0</v>
       </c>
       <c r="W335">
-        <v>97.09</v>
+        <v>0</v>
       </c>
       <c r="X335">
         <v>0</v>
@@ -39263,7 +39239,7 @@
         <v>0</v>
       </c>
       <c r="Z335">
-        <v>97.09</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336" spans="1:26" x14ac:dyDescent="0.25">
@@ -39289,13 +39265,13 @@
         <v>16</v>
       </c>
       <c r="H336">
-        <v>160025</v>
+        <v>160023</v>
       </c>
       <c r="I336">
-        <v>1600253</v>
+        <v>1600238</v>
       </c>
       <c r="J336" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="K336">
         <v>2010</v>
@@ -39303,6 +39279,9 @@
       <c r="L336">
         <v>2009</v>
       </c>
+      <c r="M336" t="s">
+        <v>40</v>
+      </c>
       <c r="N336">
         <v>0</v>
       </c>
@@ -39310,7 +39289,7 @@
         <v>0</v>
       </c>
       <c r="P336">
-        <v>0</v>
+        <v>10546.09</v>
       </c>
       <c r="Q336">
         <v>0</v>
@@ -39340,7 +39319,7 @@
         <v>0</v>
       </c>
       <c r="Z336">
-        <v>0</v>
+        <v>10546.09</v>
       </c>
     </row>
     <row r="337" spans="1:26" x14ac:dyDescent="0.25">
@@ -39366,13 +39345,13 @@
         <v>16</v>
       </c>
       <c r="H337">
-        <v>160027</v>
+        <v>160023</v>
       </c>
       <c r="I337">
-        <v>1600279</v>
+        <v>1600238</v>
       </c>
       <c r="J337" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K337">
         <v>2010</v>
@@ -39411,7 +39390,7 @@
         <v>0</v>
       </c>
       <c r="W337">
-        <v>4300.03</v>
+        <v>97.09</v>
       </c>
       <c r="X337">
         <v>0</v>
@@ -39420,7 +39399,7 @@
         <v>0</v>
       </c>
       <c r="Z337">
-        <v>4300.03</v>
+        <v>97.09</v>
       </c>
     </row>
     <row r="338" spans="1:26" x14ac:dyDescent="0.25">
@@ -39446,13 +39425,13 @@
         <v>16</v>
       </c>
       <c r="H338">
-        <v>160030</v>
+        <v>160025</v>
       </c>
       <c r="I338">
-        <v>1600303</v>
+        <v>1600253</v>
       </c>
       <c r="J338" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K338">
         <v>2010</v>
@@ -39460,47 +39439,44 @@
       <c r="L338">
         <v>2009</v>
       </c>
-      <c r="M338" t="s">
-        <v>42</v>
-      </c>
       <c r="N338">
-        <v>482.51</v>
+        <v>0</v>
       </c>
       <c r="O338">
         <v>0</v>
       </c>
       <c r="P338">
-        <v>234.65</v>
+        <v>0</v>
       </c>
       <c r="Q338">
-        <v>615.02</v>
+        <v>0</v>
       </c>
       <c r="R338">
-        <v>298.10000000000002</v>
+        <v>0</v>
       </c>
       <c r="S338">
-        <v>377.44</v>
+        <v>0</v>
       </c>
       <c r="T338">
-        <v>213.66</v>
+        <v>0</v>
       </c>
       <c r="U338">
-        <v>256.41000000000003</v>
+        <v>0</v>
       </c>
       <c r="V338">
         <v>0</v>
       </c>
       <c r="W338">
-        <v>87.14</v>
+        <v>0</v>
       </c>
       <c r="X338">
-        <v>14.18</v>
+        <v>0</v>
       </c>
       <c r="Y338">
-        <v>201.33</v>
+        <v>0</v>
       </c>
       <c r="Z338">
-        <v>2780.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339" spans="1:26" x14ac:dyDescent="0.25">
@@ -39526,13 +39502,13 @@
         <v>16</v>
       </c>
       <c r="H339">
-        <v>160040</v>
+        <v>160027</v>
       </c>
       <c r="I339">
-        <v>1600402</v>
+        <v>1600279</v>
       </c>
       <c r="J339" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K339">
         <v>2010</v>
@@ -39568,19 +39544,19 @@
         <v>0</v>
       </c>
       <c r="V339">
-        <v>1775.46</v>
+        <v>0</v>
       </c>
       <c r="W339">
-        <v>0</v>
+        <v>4300.03</v>
       </c>
       <c r="X339">
         <v>0</v>
       </c>
       <c r="Y339">
-        <v>1244.5999999999999</v>
+        <v>0</v>
       </c>
       <c r="Z339">
-        <v>3020.06</v>
+        <v>4300.03</v>
       </c>
     </row>
     <row r="340" spans="1:26" x14ac:dyDescent="0.25">
@@ -39606,13 +39582,13 @@
         <v>16</v>
       </c>
       <c r="H340">
-        <v>160050</v>
+        <v>160030</v>
       </c>
       <c r="I340">
-        <v>1600501</v>
+        <v>1600303</v>
       </c>
       <c r="J340" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K340">
         <v>2010</v>
@@ -39621,46 +39597,46 @@
         <v>2009</v>
       </c>
       <c r="M340" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="N340">
-        <v>62.96</v>
+        <v>482.51</v>
       </c>
       <c r="O340">
         <v>0</v>
       </c>
       <c r="P340">
-        <v>73.47</v>
+        <v>234.65</v>
       </c>
       <c r="Q340">
-        <v>41.2</v>
+        <v>615.02</v>
       </c>
       <c r="R340">
-        <v>0</v>
+        <v>298.10000000000002</v>
       </c>
       <c r="S340">
-        <v>12.73</v>
+        <v>377.44</v>
       </c>
       <c r="T340">
-        <v>0</v>
+        <v>213.66</v>
       </c>
       <c r="U340">
-        <v>0</v>
+        <v>256.41000000000003</v>
       </c>
       <c r="V340">
         <v>0</v>
       </c>
       <c r="W340">
-        <v>0</v>
+        <v>87.14</v>
       </c>
       <c r="X340">
-        <v>594.27</v>
+        <v>14.18</v>
       </c>
       <c r="Y340">
-        <v>0</v>
+        <v>201.33</v>
       </c>
       <c r="Z340">
-        <v>784.63</v>
+        <v>2780.44</v>
       </c>
     </row>
     <row r="341" spans="1:26" x14ac:dyDescent="0.25">
@@ -39686,13 +39662,13 @@
         <v>16</v>
       </c>
       <c r="H341">
-        <v>160015</v>
+        <v>160040</v>
       </c>
       <c r="I341">
-        <v>1600154</v>
+        <v>1600402</v>
       </c>
       <c r="J341" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K341">
         <v>2010</v>
@@ -39701,46 +39677,46 @@
         <v>2009</v>
       </c>
       <c r="M341" t="s">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="N341">
         <v>0</v>
       </c>
       <c r="O341">
-        <v>570087.97</v>
+        <v>0</v>
       </c>
       <c r="P341">
-        <v>451774.27</v>
+        <v>0</v>
       </c>
       <c r="Q341">
-        <v>412576.33</v>
+        <v>0</v>
       </c>
       <c r="R341">
-        <v>416378.97</v>
+        <v>0</v>
       </c>
       <c r="S341">
-        <v>320055.13</v>
+        <v>0</v>
       </c>
       <c r="T341">
-        <v>140968.07999999999</v>
+        <v>0</v>
       </c>
       <c r="U341">
-        <v>207695.84</v>
+        <v>0</v>
       </c>
       <c r="V341">
-        <v>546180.61</v>
+        <v>1775.46</v>
       </c>
       <c r="W341">
-        <v>434262.57</v>
+        <v>0</v>
       </c>
       <c r="X341">
-        <v>234718.27</v>
+        <v>0</v>
       </c>
       <c r="Y341">
-        <v>412661.55</v>
+        <v>1244.5999999999999</v>
       </c>
       <c r="Z341">
-        <v>4147359.59</v>
+        <v>3020.06</v>
       </c>
     </row>
     <row r="342" spans="1:26" x14ac:dyDescent="0.25">
@@ -39766,13 +39742,13 @@
         <v>16</v>
       </c>
       <c r="H342">
-        <v>160015</v>
+        <v>160050</v>
       </c>
       <c r="I342">
-        <v>1600154</v>
+        <v>1600501</v>
       </c>
       <c r="J342" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="K342">
         <v>2010</v>
@@ -39781,46 +39757,46 @@
         <v>2009</v>
       </c>
       <c r="M342" t="s">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="N342">
-        <v>167501</v>
+        <v>62.96</v>
       </c>
       <c r="O342">
-        <v>169122.3</v>
+        <v>0</v>
       </c>
       <c r="P342">
-        <v>179602.4</v>
+        <v>73.47</v>
       </c>
       <c r="Q342">
-        <v>99980.2</v>
+        <v>41.2</v>
       </c>
       <c r="R342">
-        <v>49511.13</v>
+        <v>0</v>
       </c>
       <c r="S342">
-        <v>54301.1</v>
+        <v>12.73</v>
       </c>
       <c r="T342">
-        <v>203.49</v>
+        <v>0</v>
       </c>
       <c r="U342">
         <v>0</v>
       </c>
       <c r="V342">
-        <v>6985.91</v>
+        <v>0</v>
       </c>
       <c r="W342">
         <v>0</v>
       </c>
       <c r="X342">
-        <v>0</v>
+        <v>594.27</v>
       </c>
       <c r="Y342">
         <v>0</v>
       </c>
       <c r="Z342">
-        <v>727207.53</v>
+        <v>784.63</v>
       </c>
     </row>
     <row r="343" spans="1:26" x14ac:dyDescent="0.25">
@@ -39846,13 +39822,13 @@
         <v>16</v>
       </c>
       <c r="H343">
-        <v>160053</v>
+        <v>160015</v>
       </c>
       <c r="I343">
-        <v>1600535</v>
+        <v>1600154</v>
       </c>
       <c r="J343" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K343">
         <v>2010</v>
@@ -39861,46 +39837,46 @@
         <v>2009</v>
       </c>
       <c r="M343" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="N343">
-        <v>1991.34</v>
+        <v>0</v>
       </c>
       <c r="O343">
-        <v>640</v>
+        <v>570087.97</v>
       </c>
       <c r="P343">
-        <v>903.28</v>
+        <v>451774.27</v>
       </c>
       <c r="Q343">
-        <v>1812.42</v>
+        <v>412576.33</v>
       </c>
       <c r="R343">
-        <v>160</v>
+        <v>416378.97</v>
       </c>
       <c r="S343">
-        <v>160</v>
+        <v>320055.13</v>
       </c>
       <c r="T343">
-        <v>1756.37</v>
+        <v>140968.07999999999</v>
       </c>
       <c r="U343">
-        <v>480</v>
+        <v>207695.84</v>
       </c>
       <c r="V343">
-        <v>1750.87</v>
+        <v>546180.61</v>
       </c>
       <c r="W343">
-        <v>5493.72</v>
+        <v>434262.57</v>
       </c>
       <c r="X343">
-        <v>640</v>
+        <v>234718.27</v>
       </c>
       <c r="Y343">
-        <v>1223.56</v>
+        <v>412661.55</v>
       </c>
       <c r="Z343">
-        <v>17011.560000000001</v>
+        <v>4147359.59</v>
       </c>
     </row>
     <row r="344" spans="1:26" x14ac:dyDescent="0.25">
@@ -39926,13 +39902,13 @@
         <v>16</v>
       </c>
       <c r="H344">
-        <v>160053</v>
+        <v>160015</v>
       </c>
       <c r="I344">
-        <v>1600535</v>
+        <v>1600154</v>
       </c>
       <c r="J344" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K344">
         <v>2010</v>
@@ -39941,46 +39917,46 @@
         <v>2009</v>
       </c>
       <c r="M344" t="s">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="N344">
-        <v>160.26</v>
+        <v>167501</v>
       </c>
       <c r="O344">
-        <v>0</v>
+        <v>169122.3</v>
       </c>
       <c r="P344">
-        <v>246.6</v>
+        <v>179602.4</v>
       </c>
       <c r="Q344">
-        <v>730.78</v>
+        <v>99980.2</v>
       </c>
       <c r="R344">
-        <v>0</v>
+        <v>49511.13</v>
       </c>
       <c r="S344">
-        <v>0</v>
+        <v>54301.1</v>
       </c>
       <c r="T344">
-        <v>248.12</v>
+        <v>203.49</v>
       </c>
       <c r="U344">
-        <v>2633.02</v>
+        <v>0</v>
       </c>
       <c r="V344">
-        <v>3697.02</v>
+        <v>6985.91</v>
       </c>
       <c r="W344">
         <v>0</v>
       </c>
       <c r="X344">
-        <v>3082.3</v>
+        <v>0</v>
       </c>
       <c r="Y344">
-        <v>279.88</v>
+        <v>0</v>
       </c>
       <c r="Z344">
-        <v>11077.98</v>
+        <v>727207.53</v>
       </c>
     </row>
     <row r="345" spans="1:26" x14ac:dyDescent="0.25">
@@ -40021,46 +39997,46 @@
         <v>2009</v>
       </c>
       <c r="M345" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="N345">
-        <v>0</v>
+        <v>1991.34</v>
       </c>
       <c r="O345">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="P345">
-        <v>0</v>
+        <v>903.28</v>
       </c>
       <c r="Q345">
-        <v>0</v>
+        <v>1812.42</v>
       </c>
       <c r="R345">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="S345">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="T345">
-        <v>0</v>
+        <v>1756.37</v>
       </c>
       <c r="U345">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="V345">
-        <v>0</v>
+        <v>1750.87</v>
       </c>
       <c r="W345">
-        <v>27108.45</v>
+        <v>5493.72</v>
       </c>
       <c r="X345">
-        <v>0</v>
+        <v>640</v>
       </c>
       <c r="Y345">
-        <v>0</v>
+        <v>1223.56</v>
       </c>
       <c r="Z345">
-        <v>27108.45</v>
+        <v>17011.560000000001</v>
       </c>
     </row>
     <row r="346" spans="1:26" x14ac:dyDescent="0.25">
@@ -40101,46 +40077,46 @@
         <v>2009</v>
       </c>
       <c r="M346" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="N346">
-        <v>722.4</v>
+        <v>160.26</v>
       </c>
       <c r="O346">
-        <v>2496.1</v>
+        <v>0</v>
       </c>
       <c r="P346">
-        <v>727.44</v>
+        <v>246.6</v>
       </c>
       <c r="Q346">
-        <v>487.51</v>
+        <v>730.78</v>
       </c>
       <c r="R346">
-        <v>1463.8</v>
+        <v>0</v>
       </c>
       <c r="S346">
-        <v>3862.88</v>
+        <v>0</v>
       </c>
       <c r="T346">
-        <v>3595.94</v>
+        <v>248.12</v>
       </c>
       <c r="U346">
-        <v>0</v>
+        <v>2633.02</v>
       </c>
       <c r="V346">
-        <v>0</v>
+        <v>3697.02</v>
       </c>
       <c r="W346">
         <v>0</v>
       </c>
       <c r="X346">
-        <v>0</v>
+        <v>3082.3</v>
       </c>
       <c r="Y346">
-        <v>0</v>
+        <v>279.88</v>
       </c>
       <c r="Z346">
-        <v>13356.07</v>
+        <v>11077.98</v>
       </c>
     </row>
     <row r="347" spans="1:26" x14ac:dyDescent="0.25">
@@ -40166,13 +40142,13 @@
         <v>16</v>
       </c>
       <c r="H347">
-        <v>160055</v>
+        <v>160053</v>
       </c>
       <c r="I347">
-        <v>1600550</v>
+        <v>1600535</v>
       </c>
       <c r="J347" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K347">
         <v>2010</v>
@@ -40180,6 +40156,9 @@
       <c r="L347">
         <v>2009</v>
       </c>
+      <c r="M347" t="s">
+        <v>40</v>
+      </c>
       <c r="N347">
         <v>0</v>
       </c>
@@ -40208,7 +40187,7 @@
         <v>0</v>
       </c>
       <c r="W347">
-        <v>0</v>
+        <v>27108.45</v>
       </c>
       <c r="X347">
         <v>0</v>
@@ -40217,7 +40196,7 @@
         <v>0</v>
       </c>
       <c r="Z347">
-        <v>0</v>
+        <v>27108.45</v>
       </c>
     </row>
     <row r="348" spans="1:26" x14ac:dyDescent="0.25">
@@ -40243,13 +40222,13 @@
         <v>16</v>
       </c>
       <c r="H348">
-        <v>160060</v>
+        <v>160053</v>
       </c>
       <c r="I348">
-        <v>1600600</v>
+        <v>1600535</v>
       </c>
       <c r="J348" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K348">
         <v>2010</v>
@@ -40257,26 +40236,29 @@
       <c r="L348">
         <v>2009</v>
       </c>
+      <c r="M348" t="s">
+        <v>52</v>
+      </c>
       <c r="N348">
-        <v>0</v>
+        <v>722.4</v>
       </c>
       <c r="O348">
-        <v>0</v>
+        <v>2496.1</v>
       </c>
       <c r="P348">
-        <v>0</v>
+        <v>727.44</v>
       </c>
       <c r="Q348">
-        <v>0</v>
+        <v>487.51</v>
       </c>
       <c r="R348">
-        <v>0</v>
+        <v>1463.8</v>
       </c>
       <c r="S348">
-        <v>0</v>
+        <v>3862.88</v>
       </c>
       <c r="T348">
-        <v>0</v>
+        <v>3595.94</v>
       </c>
       <c r="U348">
         <v>0</v>
@@ -40294,7 +40276,7 @@
         <v>0</v>
       </c>
       <c r="Z348">
-        <v>0</v>
+        <v>13356.07</v>
       </c>
     </row>
     <row r="349" spans="1:26" x14ac:dyDescent="0.25">
@@ -40320,13 +40302,13 @@
         <v>16</v>
       </c>
       <c r="H349">
-        <v>160005</v>
+        <v>160055</v>
       </c>
       <c r="I349">
-        <v>1600055</v>
+        <v>1600550</v>
       </c>
       <c r="J349" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K349">
         <v>2010</v>
@@ -40334,9 +40316,6 @@
       <c r="L349">
         <v>2009</v>
       </c>
-      <c r="M349" t="s">
-        <v>66</v>
-      </c>
       <c r="N349">
         <v>0</v>
       </c>
@@ -40359,7 +40338,7 @@
         <v>0</v>
       </c>
       <c r="U349">
-        <v>53995.78</v>
+        <v>0</v>
       </c>
       <c r="V349">
         <v>0</v>
@@ -40374,7 +40353,7 @@
         <v>0</v>
       </c>
       <c r="Z349">
-        <v>53995.78</v>
+        <v>0</v>
       </c>
     </row>
     <row r="350" spans="1:26" x14ac:dyDescent="0.25">
@@ -40400,13 +40379,13 @@
         <v>16</v>
       </c>
       <c r="H350">
-        <v>160070</v>
+        <v>160060</v>
       </c>
       <c r="I350">
-        <v>1600709</v>
+        <v>1600600</v>
       </c>
       <c r="J350" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K350">
         <v>2010</v>
@@ -40477,13 +40456,13 @@
         <v>16</v>
       </c>
       <c r="H351">
-        <v>160080</v>
+        <v>160005</v>
       </c>
       <c r="I351">
-        <v>1600808</v>
+        <v>1600055</v>
       </c>
       <c r="J351" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K351">
         <v>2010</v>
@@ -40492,46 +40471,46 @@
         <v>2009</v>
       </c>
       <c r="M351" t="s">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="N351">
-        <v>407675.52</v>
+        <v>0</v>
       </c>
       <c r="O351">
-        <v>133106.49</v>
+        <v>0</v>
       </c>
       <c r="P351">
-        <v>323503.09000000003</v>
+        <v>0</v>
       </c>
       <c r="Q351">
-        <v>372349.49</v>
+        <v>0</v>
       </c>
       <c r="R351">
-        <v>148683.95000000001</v>
+        <v>0</v>
       </c>
       <c r="S351">
-        <v>179085.43</v>
+        <v>0</v>
       </c>
       <c r="T351">
-        <v>167879.18</v>
+        <v>0</v>
       </c>
       <c r="U351">
-        <v>262401.56</v>
+        <v>53995.78</v>
       </c>
       <c r="V351">
-        <v>185961.52</v>
+        <v>0</v>
       </c>
       <c r="W351">
-        <v>185845.54</v>
+        <v>0</v>
       </c>
       <c r="X351">
-        <v>165816.5</v>
+        <v>0</v>
       </c>
       <c r="Y351">
-        <v>252968.09</v>
+        <v>0</v>
       </c>
       <c r="Z351">
-        <v>2785276.36</v>
+        <v>53995.78</v>
       </c>
     </row>
     <row r="352" spans="1:26" x14ac:dyDescent="0.25">
@@ -40557,19 +40536,19 @@
         <v>16</v>
       </c>
       <c r="H352">
-        <v>160010</v>
+        <v>160070</v>
       </c>
       <c r="I352">
-        <v>1600105</v>
+        <v>1600709</v>
       </c>
       <c r="J352" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="K352">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="L352">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="N352">
         <v>0</v>
@@ -40634,61 +40613,61 @@
         <v>16</v>
       </c>
       <c r="H353">
-        <v>160020</v>
+        <v>160080</v>
       </c>
       <c r="I353">
-        <v>1600204</v>
+        <v>1600808</v>
       </c>
       <c r="J353" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="K353">
-        <v>2000</v>
+        <v>2010</v>
       </c>
       <c r="L353">
-        <v>2004</v>
+        <v>2009</v>
       </c>
       <c r="M353" t="s">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="N353">
-        <v>0</v>
+        <v>407675.52</v>
       </c>
       <c r="O353">
-        <v>28659.59</v>
+        <v>133106.49</v>
       </c>
       <c r="P353">
-        <v>16260.86</v>
+        <v>323503.09000000003</v>
       </c>
       <c r="Q353">
-        <v>8775.93</v>
+        <v>372349.49</v>
       </c>
       <c r="R353">
-        <v>8449.85</v>
+        <v>148683.95000000001</v>
       </c>
       <c r="S353">
-        <v>8507.44</v>
+        <v>179085.43</v>
       </c>
       <c r="T353">
-        <v>6530.75</v>
+        <v>167879.18</v>
       </c>
       <c r="U353">
-        <v>5529.17</v>
+        <v>262401.56</v>
       </c>
       <c r="V353">
-        <v>5800.83</v>
+        <v>185961.52</v>
       </c>
       <c r="W353">
-        <v>4633.62</v>
+        <v>185845.54</v>
       </c>
       <c r="X353">
-        <v>4545.51</v>
+        <v>165816.5</v>
       </c>
       <c r="Y353">
-        <v>0</v>
+        <v>252968.09</v>
       </c>
       <c r="Z353">
-        <v>97693.55</v>
+        <v>2785276.36</v>
       </c>
     </row>
     <row r="354" spans="1:26" x14ac:dyDescent="0.25">
@@ -40714,13 +40693,13 @@
         <v>16</v>
       </c>
       <c r="H354">
-        <v>160021</v>
+        <v>160010</v>
       </c>
       <c r="I354">
-        <v>1600212</v>
+        <v>1600105</v>
       </c>
       <c r="J354" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="K354">
         <v>2000</v>
@@ -40791,13 +40770,13 @@
         <v>16</v>
       </c>
       <c r="H355">
-        <v>160023</v>
+        <v>160020</v>
       </c>
       <c r="I355">
-        <v>1600238</v>
+        <v>1600204</v>
       </c>
       <c r="J355" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K355">
         <v>2000</v>
@@ -40805,44 +40784,47 @@
       <c r="L355">
         <v>2004</v>
       </c>
+      <c r="M355" t="s">
+        <v>0</v>
+      </c>
       <c r="N355">
         <v>0</v>
       </c>
       <c r="O355">
-        <v>0</v>
+        <v>28659.59</v>
       </c>
       <c r="P355">
-        <v>0</v>
+        <v>16260.86</v>
       </c>
       <c r="Q355">
-        <v>0</v>
+        <v>8775.93</v>
       </c>
       <c r="R355">
-        <v>0</v>
+        <v>8449.85</v>
       </c>
       <c r="S355">
-        <v>0</v>
+        <v>8507.44</v>
       </c>
       <c r="T355">
-        <v>0</v>
+        <v>6530.75</v>
       </c>
       <c r="U355">
-        <v>0</v>
+        <v>5529.17</v>
       </c>
       <c r="V355">
-        <v>0</v>
+        <v>5800.83</v>
       </c>
       <c r="W355">
-        <v>0</v>
+        <v>4633.62</v>
       </c>
       <c r="X355">
-        <v>0</v>
+        <v>4545.51</v>
       </c>
       <c r="Y355">
         <v>0</v>
       </c>
       <c r="Z355">
-        <v>0</v>
+        <v>97693.55</v>
       </c>
     </row>
     <row r="356" spans="1:26" x14ac:dyDescent="0.25">
@@ -40868,13 +40850,13 @@
         <v>16</v>
       </c>
       <c r="H356">
-        <v>160025</v>
+        <v>160021</v>
       </c>
       <c r="I356">
-        <v>1600253</v>
+        <v>1600212</v>
       </c>
       <c r="J356" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="K356">
         <v>2000</v>
@@ -40945,13 +40927,13 @@
         <v>16</v>
       </c>
       <c r="H357">
-        <v>160027</v>
+        <v>160023</v>
       </c>
       <c r="I357">
-        <v>1600279</v>
+        <v>1600238</v>
       </c>
       <c r="J357" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="K357">
         <v>2000</v>
@@ -41022,13 +41004,13 @@
         <v>16</v>
       </c>
       <c r="H358">
-        <v>160030</v>
+        <v>160025</v>
       </c>
       <c r="I358">
-        <v>1600303</v>
+        <v>1600253</v>
       </c>
       <c r="J358" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="K358">
         <v>2000</v>
@@ -41099,13 +41081,13 @@
         <v>16</v>
       </c>
       <c r="H359">
-        <v>160040</v>
+        <v>160027</v>
       </c>
       <c r="I359">
-        <v>1600402</v>
+        <v>1600279</v>
       </c>
       <c r="J359" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="K359">
         <v>2000</v>
@@ -41113,9 +41095,6 @@
       <c r="L359">
         <v>2004</v>
       </c>
-      <c r="M359" t="s">
-        <v>94</v>
-      </c>
       <c r="N359">
         <v>0</v>
       </c>
@@ -41132,7 +41111,7 @@
         <v>0</v>
       </c>
       <c r="S359">
-        <v>48714</v>
+        <v>0</v>
       </c>
       <c r="T359">
         <v>0</v>
@@ -41153,7 +41132,7 @@
         <v>0</v>
       </c>
       <c r="Z359">
-        <v>48714</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360" spans="1:26" x14ac:dyDescent="0.25">
@@ -41179,13 +41158,13 @@
         <v>16</v>
       </c>
       <c r="H360">
-        <v>160050</v>
+        <v>160030</v>
       </c>
       <c r="I360">
-        <v>1600501</v>
+        <v>1600303</v>
       </c>
       <c r="J360" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="K360">
         <v>2000</v>
@@ -41193,9 +41172,6 @@
       <c r="L360">
         <v>2004</v>
       </c>
-      <c r="M360" t="s">
-        <v>39</v>
-      </c>
       <c r="N360">
         <v>0</v>
       </c>
@@ -41203,7 +41179,7 @@
         <v>0</v>
       </c>
       <c r="P360">
-        <v>203.32</v>
+        <v>0</v>
       </c>
       <c r="Q360">
         <v>0</v>
@@ -41218,7 +41194,7 @@
         <v>0</v>
       </c>
       <c r="U360">
-        <v>156.72</v>
+        <v>0</v>
       </c>
       <c r="V360">
         <v>0</v>
@@ -41233,7 +41209,7 @@
         <v>0</v>
       </c>
       <c r="Z360">
-        <v>360.04</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361" spans="1:26" x14ac:dyDescent="0.25">
@@ -41259,13 +41235,13 @@
         <v>16</v>
       </c>
       <c r="H361">
-        <v>160015</v>
+        <v>160040</v>
       </c>
       <c r="I361">
-        <v>1600154</v>
+        <v>1600402</v>
       </c>
       <c r="J361" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="K361">
         <v>2000</v>
@@ -41273,6 +41249,9 @@
       <c r="L361">
         <v>2004</v>
       </c>
+      <c r="M361" t="s">
+        <v>94</v>
+      </c>
       <c r="N361">
         <v>0</v>
       </c>
@@ -41289,7 +41268,7 @@
         <v>0</v>
       </c>
       <c r="S361">
-        <v>0</v>
+        <v>48714</v>
       </c>
       <c r="T361">
         <v>0</v>
@@ -41310,7 +41289,7 @@
         <v>0</v>
       </c>
       <c r="Z361">
-        <v>0</v>
+        <v>48714</v>
       </c>
     </row>
     <row r="362" spans="1:26" x14ac:dyDescent="0.25">
@@ -41336,13 +41315,13 @@
         <v>16</v>
       </c>
       <c r="H362">
-        <v>160053</v>
+        <v>160050</v>
       </c>
       <c r="I362">
-        <v>1600535</v>
+        <v>1600501</v>
       </c>
       <c r="J362" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="K362">
         <v>2000</v>
@@ -41360,7 +41339,7 @@
         <v>0</v>
       </c>
       <c r="P362">
-        <v>1583.23</v>
+        <v>203.32</v>
       </c>
       <c r="Q362">
         <v>0</v>
@@ -41375,22 +41354,22 @@
         <v>0</v>
       </c>
       <c r="U362">
-        <v>0</v>
+        <v>156.72</v>
       </c>
       <c r="V362">
         <v>0</v>
       </c>
       <c r="W362">
-        <v>4658.63</v>
+        <v>0</v>
       </c>
       <c r="X362">
-        <v>1165.95</v>
+        <v>0</v>
       </c>
       <c r="Y362">
-        <v>2095.81</v>
+        <v>0</v>
       </c>
       <c r="Z362">
-        <v>9503.6200000000008</v>
+        <v>360.04</v>
       </c>
     </row>
     <row r="363" spans="1:26" x14ac:dyDescent="0.25">
@@ -41416,13 +41395,13 @@
         <v>16</v>
       </c>
       <c r="H363">
-        <v>160053</v>
+        <v>160015</v>
       </c>
       <c r="I363">
-        <v>1600535</v>
+        <v>1600154</v>
       </c>
       <c r="J363" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="K363">
         <v>2000</v>
@@ -41430,17 +41409,14 @@
       <c r="L363">
         <v>2004</v>
       </c>
-      <c r="M363" t="s">
-        <v>52</v>
-      </c>
       <c r="N363">
-        <v>3407.93</v>
+        <v>0</v>
       </c>
       <c r="O363">
         <v>0</v>
       </c>
       <c r="P363">
-        <v>106.41</v>
+        <v>0</v>
       </c>
       <c r="Q363">
         <v>0</v>
@@ -41461,16 +41437,16 @@
         <v>0</v>
       </c>
       <c r="W363">
-        <v>5808.15</v>
+        <v>0</v>
       </c>
       <c r="X363">
-        <v>4878.51</v>
+        <v>0</v>
       </c>
       <c r="Y363">
-        <v>509.55</v>
+        <v>0</v>
       </c>
       <c r="Z363">
-        <v>14710.55</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364" spans="1:26" x14ac:dyDescent="0.25">
@@ -41496,13 +41472,13 @@
         <v>16</v>
       </c>
       <c r="H364">
-        <v>160055</v>
+        <v>160053</v>
       </c>
       <c r="I364">
-        <v>1600550</v>
+        <v>1600535</v>
       </c>
       <c r="J364" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="K364">
         <v>2000</v>
@@ -41510,6 +41486,9 @@
       <c r="L364">
         <v>2004</v>
       </c>
+      <c r="M364" t="s">
+        <v>39</v>
+      </c>
       <c r="N364">
         <v>0</v>
       </c>
@@ -41517,7 +41496,7 @@
         <v>0</v>
       </c>
       <c r="P364">
-        <v>0</v>
+        <v>1583.23</v>
       </c>
       <c r="Q364">
         <v>0</v>
@@ -41538,16 +41517,16 @@
         <v>0</v>
       </c>
       <c r="W364">
-        <v>0</v>
+        <v>4658.63</v>
       </c>
       <c r="X364">
-        <v>0</v>
+        <v>1165.95</v>
       </c>
       <c r="Y364">
-        <v>0</v>
+        <v>2095.81</v>
       </c>
       <c r="Z364">
-        <v>0</v>
+        <v>9503.6200000000008</v>
       </c>
     </row>
     <row r="365" spans="1:26" x14ac:dyDescent="0.25">
@@ -41573,13 +41552,13 @@
         <v>16</v>
       </c>
       <c r="H365">
-        <v>160060</v>
+        <v>160053</v>
       </c>
       <c r="I365">
-        <v>1600600</v>
+        <v>1600535</v>
       </c>
       <c r="J365" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="K365">
         <v>2000</v>
@@ -41587,14 +41566,17 @@
       <c r="L365">
         <v>2004</v>
       </c>
+      <c r="M365" t="s">
+        <v>52</v>
+      </c>
       <c r="N365">
-        <v>0</v>
+        <v>3407.93</v>
       </c>
       <c r="O365">
         <v>0</v>
       </c>
       <c r="P365">
-        <v>0</v>
+        <v>106.41</v>
       </c>
       <c r="Q365">
         <v>0</v>
@@ -41615,16 +41597,16 @@
         <v>0</v>
       </c>
       <c r="W365">
-        <v>0</v>
+        <v>5808.15</v>
       </c>
       <c r="X365">
-        <v>0</v>
+        <v>4878.51</v>
       </c>
       <c r="Y365">
-        <v>0</v>
+        <v>509.55</v>
       </c>
       <c r="Z365">
-        <v>0</v>
+        <v>14710.55</v>
       </c>
     </row>
     <row r="366" spans="1:26" x14ac:dyDescent="0.25">
@@ -41650,13 +41632,13 @@
         <v>16</v>
       </c>
       <c r="H366">
-        <v>160005</v>
+        <v>160055</v>
       </c>
       <c r="I366">
-        <v>1600055</v>
+        <v>1600550</v>
       </c>
       <c r="J366" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="K366">
         <v>2000</v>
@@ -41664,11 +41646,8 @@
       <c r="L366">
         <v>2004</v>
       </c>
-      <c r="M366" t="s">
-        <v>95</v>
-      </c>
       <c r="N366">
-        <v>3166.85</v>
+        <v>0</v>
       </c>
       <c r="O366">
         <v>0</v>
@@ -41677,7 +41656,7 @@
         <v>0</v>
       </c>
       <c r="Q366">
-        <v>3351.45</v>
+        <v>0</v>
       </c>
       <c r="R366">
         <v>0</v>
@@ -41704,7 +41683,7 @@
         <v>0</v>
       </c>
       <c r="Z366">
-        <v>6518.3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367" spans="1:26" x14ac:dyDescent="0.25">
@@ -41730,13 +41709,13 @@
         <v>16</v>
       </c>
       <c r="H367">
-        <v>160070</v>
+        <v>160060</v>
       </c>
       <c r="I367">
-        <v>1600709</v>
+        <v>1600600</v>
       </c>
       <c r="J367" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K367">
         <v>2000</v>
@@ -41807,13 +41786,13 @@
         <v>16</v>
       </c>
       <c r="H368">
-        <v>160080</v>
+        <v>160005</v>
       </c>
       <c r="I368">
-        <v>1600808</v>
+        <v>1600055</v>
       </c>
       <c r="J368" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="K368">
         <v>2000</v>
@@ -41822,52 +41801,209 @@
         <v>2004</v>
       </c>
       <c r="M368" t="s">
+        <v>95</v>
+      </c>
+      <c r="N368">
+        <v>3166.85</v>
+      </c>
+      <c r="O368">
+        <v>0</v>
+      </c>
+      <c r="P368">
+        <v>0</v>
+      </c>
+      <c r="Q368">
+        <v>3351.45</v>
+      </c>
+      <c r="R368">
+        <v>0</v>
+      </c>
+      <c r="S368">
+        <v>0</v>
+      </c>
+      <c r="T368">
+        <v>0</v>
+      </c>
+      <c r="U368">
+        <v>0</v>
+      </c>
+      <c r="V368">
+        <v>0</v>
+      </c>
+      <c r="W368">
+        <v>0</v>
+      </c>
+      <c r="X368">
+        <v>0</v>
+      </c>
+      <c r="Y368">
+        <v>0</v>
+      </c>
+      <c r="Z368">
+        <v>6518.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>1</v>
+      </c>
+      <c r="B369" t="s">
+        <v>10</v>
+      </c>
+      <c r="C369" t="s">
+        <v>11</v>
+      </c>
+      <c r="D369">
+        <v>16</v>
+      </c>
+      <c r="E369" t="s">
+        <v>12</v>
+      </c>
+      <c r="F369" t="s">
+        <v>68</v>
+      </c>
+      <c r="G369">
+        <v>16</v>
+      </c>
+      <c r="H369">
+        <v>160070</v>
+      </c>
+      <c r="I369">
+        <v>1600709</v>
+      </c>
+      <c r="J369" t="s">
+        <v>26</v>
+      </c>
+      <c r="K369">
+        <v>2000</v>
+      </c>
+      <c r="L369">
+        <v>2004</v>
+      </c>
+      <c r="N369">
+        <v>0</v>
+      </c>
+      <c r="O369">
+        <v>0</v>
+      </c>
+      <c r="P369">
+        <v>0</v>
+      </c>
+      <c r="Q369">
+        <v>0</v>
+      </c>
+      <c r="R369">
+        <v>0</v>
+      </c>
+      <c r="S369">
+        <v>0</v>
+      </c>
+      <c r="T369">
+        <v>0</v>
+      </c>
+      <c r="U369">
+        <v>0</v>
+      </c>
+      <c r="V369">
+        <v>0</v>
+      </c>
+      <c r="W369">
+        <v>0</v>
+      </c>
+      <c r="X369">
+        <v>0</v>
+      </c>
+      <c r="Y369">
+        <v>0</v>
+      </c>
+      <c r="Z369">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>1</v>
+      </c>
+      <c r="B370" t="s">
+        <v>10</v>
+      </c>
+      <c r="C370" t="s">
+        <v>11</v>
+      </c>
+      <c r="D370">
+        <v>16</v>
+      </c>
+      <c r="E370" t="s">
+        <v>12</v>
+      </c>
+      <c r="F370" t="s">
+        <v>68</v>
+      </c>
+      <c r="G370">
+        <v>16</v>
+      </c>
+      <c r="H370">
+        <v>160080</v>
+      </c>
+      <c r="I370">
+        <v>1600808</v>
+      </c>
+      <c r="J370" t="s">
+        <v>27</v>
+      </c>
+      <c r="K370">
+        <v>2000</v>
+      </c>
+      <c r="L370">
+        <v>2004</v>
+      </c>
+      <c r="M370" t="s">
         <v>48</v>
       </c>
-      <c r="N368">
+      <c r="N370">
         <v>193263.25</v>
       </c>
-      <c r="O368">
+      <c r="O370">
         <v>390154.27</v>
       </c>
-      <c r="P368">
+      <c r="P370">
         <v>356345.83</v>
       </c>
-      <c r="Q368">
+      <c r="Q370">
         <v>566609.01</v>
       </c>
-      <c r="R368">
+      <c r="R370">
         <v>379247.18</v>
       </c>
-      <c r="S368">
+      <c r="S370">
         <v>360996.54</v>
       </c>
-      <c r="T368">
+      <c r="T370">
         <v>548261.82999999996</v>
       </c>
-      <c r="U368">
+      <c r="U370">
         <v>239345.91</v>
       </c>
-      <c r="V368">
+      <c r="V370">
         <v>427475.71</v>
       </c>
-      <c r="W368">
+      <c r="W370">
         <v>487390.57</v>
       </c>
-      <c r="X368">
+      <c r="X370">
         <v>335758.85</v>
       </c>
-      <c r="Y368">
+      <c r="Y370">
         <v>394832.82</v>
       </c>
-      <c r="Z368">
+      <c r="Z370">
         <v>4679681.7699999996</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AA330">
-    <sortCondition descending="1" ref="L2:L330"/>
-    <sortCondition ref="J2:J330"/>
+  <sortState ref="A2:Z368">
+    <sortCondition descending="1" ref="L2:L368"/>
+    <sortCondition ref="J2:J368"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -41880,10 +42016,10 @@
   <dimension ref="A1:W192"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="9" ySplit="1" topLeftCell="K8" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="9" ySplit="1" topLeftCell="M128" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="I1" sqref="I1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="W14" sqref="W14:W24"/>
+      <selection pane="bottomRight" activeCell="Q140" sqref="Q140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -55534,494 +55670,457 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A3:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="6" width="18.140625" customWidth="1"/>
-    <col min="7" max="13" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.42578125" customWidth="1"/>
+    <col min="2" max="8" width="18.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.85546875" customWidth="1"/>
+    <col min="10" max="21" width="23.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="10">
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" t="s">
+        <v>40</v>
+      </c>
+      <c r="E6" t="s">
+        <v>45</v>
+      </c>
+      <c r="F6" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" t="s">
+        <v>0</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2004</v>
+      </c>
+      <c r="B7" s="10">
+        <v>4679681.7699999996</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="10"/>
+      <c r="E7" s="10"/>
+      <c r="F7" s="10"/>
+      <c r="G7" s="10">
+        <v>97693.55</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10">
+        <v>4777375.3199999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2009</v>
+      </c>
+      <c r="B8" s="10">
+        <v>2785276.36</v>
+      </c>
+      <c r="C8" s="10"/>
+      <c r="D8" s="10">
+        <v>37654.54</v>
+      </c>
+      <c r="E8" s="10">
+        <v>4147359.59</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10">
+        <v>734624.71000000008</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10">
+        <v>7704915.2000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2010</v>
+      </c>
+      <c r="B9" s="10">
+        <v>2117696.61</v>
+      </c>
+      <c r="C9" s="10">
+        <v>62412.28</v>
+      </c>
+      <c r="D9" s="10">
+        <v>107005.84</v>
+      </c>
+      <c r="E9" s="10">
+        <v>95789.85</v>
+      </c>
+      <c r="F9" s="10">
+        <v>7235.6100000000006</v>
+      </c>
+      <c r="G9" s="10">
+        <v>5751.94</v>
+      </c>
+      <c r="H9" s="10">
+        <v>35958.350000000006</v>
+      </c>
+      <c r="I9" s="10">
+        <v>2431850.4799999995</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2011</v>
+      </c>
+      <c r="B10" s="10">
+        <v>2017301.99</v>
+      </c>
+      <c r="C10" s="10">
+        <v>56055.59</v>
+      </c>
+      <c r="D10" s="10">
+        <v>124253.72</v>
+      </c>
+      <c r="E10" s="10">
+        <v>15020371.289999999</v>
+      </c>
+      <c r="F10" s="10">
+        <v>7957.61</v>
+      </c>
+      <c r="G10" s="10">
+        <v>11193.880000000001</v>
+      </c>
+      <c r="H10" s="10">
+        <v>28219.360000000001</v>
+      </c>
+      <c r="I10" s="10">
+        <v>17265353.439999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2012</v>
+      </c>
+      <c r="B11" s="10">
+        <v>1782537.8299999998</v>
+      </c>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10">
+        <v>208736.9</v>
+      </c>
+      <c r="E11" s="10">
+        <v>14206236.039999999</v>
+      </c>
+      <c r="F11" s="10">
+        <v>17307.27</v>
+      </c>
+      <c r="G11" s="10">
+        <v>85233.55</v>
+      </c>
+      <c r="H11" s="10">
+        <v>65617.679999999993</v>
+      </c>
+      <c r="I11" s="10">
+        <v>16365669.27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>2013</v>
+      </c>
+      <c r="B12" s="10">
+        <v>1879272.95</v>
+      </c>
+      <c r="C12" s="10"/>
+      <c r="D12" s="10">
+        <v>302822.83999999997</v>
+      </c>
+      <c r="E12" s="10">
+        <v>6944090.4200000009</v>
+      </c>
+      <c r="F12" s="10">
+        <v>27356.07</v>
+      </c>
+      <c r="G12" s="10">
+        <v>2712725.6</v>
+      </c>
+      <c r="H12" s="10">
+        <v>56203.61</v>
+      </c>
+      <c r="I12" s="10">
+        <v>11922471.49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>2014</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2127850.2000000002</v>
+      </c>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10">
+        <v>429910.64</v>
+      </c>
+      <c r="E13" s="10">
+        <v>4483122.04</v>
+      </c>
+      <c r="F13" s="10">
+        <v>117395.20000000001</v>
+      </c>
+      <c r="G13" s="10">
+        <v>5504000.7999999998</v>
+      </c>
+      <c r="H13" s="10">
+        <v>5710.19</v>
+      </c>
+      <c r="I13" s="10">
+        <v>12667989.07</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2015</v>
+      </c>
+      <c r="B14" s="10">
+        <v>1739952.35</v>
+      </c>
+      <c r="C14" s="10"/>
+      <c r="D14" s="10">
+        <v>121164.68</v>
+      </c>
+      <c r="E14" s="10">
+        <v>100453.45</v>
+      </c>
+      <c r="F14" s="10">
+        <v>129181.97</v>
+      </c>
+      <c r="G14" s="10">
+        <v>5232142.05</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10">
+        <v>7322894.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>2016</v>
+      </c>
+      <c r="B15" s="10">
+        <v>8445814.9600000009</v>
+      </c>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10">
+        <v>107766.70000000001</v>
+      </c>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10">
+        <v>158256.22</v>
+      </c>
+      <c r="G15" s="10">
+        <v>8318054.0500000007</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10">
+        <v>17029891.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>2017</v>
+      </c>
+      <c r="B16" s="10">
+        <v>3268558.8</v>
+      </c>
+      <c r="C16" s="10">
+        <v>66106.78</v>
+      </c>
+      <c r="D16" s="10">
+        <v>99664.06</v>
+      </c>
+      <c r="E16" s="10">
+        <v>75232.600000000006</v>
+      </c>
+      <c r="F16" s="10">
+        <v>81153.100000000006</v>
+      </c>
+      <c r="G16" s="10">
+        <v>5521437.75</v>
+      </c>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10">
+        <v>9112153.0899999999</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>2018</v>
+      </c>
+      <c r="B17" s="10">
+        <v>3025353.32</v>
+      </c>
+      <c r="C17" s="10">
+        <v>207375.02</v>
+      </c>
+      <c r="D17" s="10">
+        <v>120315.18</v>
+      </c>
+      <c r="E17" s="10">
+        <v>9028.3799999999992</v>
+      </c>
+      <c r="F17" s="10">
+        <v>230930.25</v>
+      </c>
+      <c r="G17" s="10">
+        <v>6201980.1200000001</v>
+      </c>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10">
+        <v>9794982.2699999996</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2019</v>
+      </c>
+      <c r="B18" s="10">
+        <v>3594152.2</v>
+      </c>
+      <c r="C18" s="10">
+        <v>206539.78</v>
+      </c>
+      <c r="D18" s="10">
+        <v>118711.98999999999</v>
+      </c>
+      <c r="E18" s="10">
+        <v>9552.19</v>
+      </c>
+      <c r="F18" s="10">
+        <v>504429.63</v>
+      </c>
+      <c r="G18" s="10">
+        <v>16162985.129999999</v>
+      </c>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10">
+        <v>20596370.919999998</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>2020</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="B4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E4" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" t="s">
-        <v>48</v>
-      </c>
-      <c r="G4" t="s">
-        <v>44</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>45</v>
-      </c>
-      <c r="J4" t="s">
-        <v>47</v>
-      </c>
-      <c r="K4" t="s">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>50</v>
-      </c>
-      <c r="M4" t="s">
-        <v>134</v>
-      </c>
-      <c r="N4" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" s="11"/>
-      <c r="C5" s="11"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="11"/>
-      <c r="F5" s="11"/>
-      <c r="G5" s="11"/>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11">
-        <v>0</v>
-      </c>
-      <c r="N5" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6" s="11"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11">
-        <v>464485.24</v>
-      </c>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11">
-        <v>464485.24</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="11"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11">
-        <v>0</v>
-      </c>
-      <c r="N7" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="11">
-        <v>70512.55</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11">
-        <v>208257.2</v>
-      </c>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-      <c r="N8" s="11">
-        <v>278769.75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11">
-        <v>0</v>
-      </c>
-      <c r="N9" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11">
-        <v>443.4</v>
-      </c>
-      <c r="D10" s="11">
-        <v>624.86</v>
-      </c>
-      <c r="E10" s="11">
-        <v>571.07000000000005</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-      <c r="N10" s="11">
-        <v>1639.33</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="11">
-        <v>68358.460000000006</v>
-      </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11">
-        <v>26483.96</v>
-      </c>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11">
-        <v>660.69</v>
-      </c>
-      <c r="M11" s="11"/>
-      <c r="N11" s="11">
-        <v>95503.110000000015</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="11"/>
-      <c r="F12" s="11"/>
-      <c r="G12" s="11">
+      <c r="B19" s="10">
+        <v>4154423.41</v>
+      </c>
+      <c r="C19" s="10">
         <v>223389.52</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11">
+      <c r="D19" s="10">
+        <v>209424.03</v>
+      </c>
+      <c r="E19" s="10">
         <v>9936.26</v>
       </c>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-      <c r="N12" s="11">
-        <v>233325.78</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>22</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11">
-        <v>3560.55</v>
-      </c>
-      <c r="F13" s="11"/>
-      <c r="G13" s="11"/>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-      <c r="N13" s="11">
-        <v>3560.55</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>14</v>
-      </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
-      <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11">
-        <v>16655621.880000001</v>
-      </c>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
-      <c r="N14" s="11">
-        <v>16655621.880000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="11">
-        <v>48945.13</v>
-      </c>
-      <c r="D15" s="11"/>
-      <c r="E15" s="11">
-        <v>42409.89</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="11"/>
-      <c r="H15" s="11">
-        <v>1166.83</v>
-      </c>
-      <c r="I15" s="11"/>
-      <c r="J15" s="11">
+      <c r="F19" s="10">
         <v>717627.31</v>
       </c>
-      <c r="K15" s="11"/>
-      <c r="L15" s="11"/>
-      <c r="M15" s="11"/>
-      <c r="N15" s="11">
-        <v>810149.16</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>24</v>
-      </c>
-      <c r="B16" s="11"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
-      <c r="G16" s="11"/>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11"/>
-      <c r="J16" s="11"/>
-      <c r="K16" s="11"/>
-      <c r="L16" s="11"/>
-      <c r="M16" s="11">
-        <v>0</v>
-      </c>
-      <c r="N16" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>25</v>
-      </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11">
-        <v>6902.29</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11">
-        <v>6902.29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11">
-        <v>0</v>
-      </c>
-      <c r="N18" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>26</v>
-      </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11">
-        <v>0</v>
-      </c>
-      <c r="N19" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="11"/>
-      <c r="D20" s="11"/>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11">
-        <v>4154423.41</v>
-      </c>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11">
-        <v>4154423.41</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="G19" s="10">
+        <v>17120107.120000001</v>
+      </c>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10">
+        <v>22434907.649999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>2021</v>
+      </c>
+      <c r="B20" s="10">
+        <v>4002133.87</v>
+      </c>
+      <c r="C20" s="10">
+        <v>232524.67</v>
+      </c>
+      <c r="D20" s="10">
+        <v>267109.39</v>
+      </c>
+      <c r="E20" s="10">
+        <v>1277169.68</v>
+      </c>
+      <c r="F20" s="10">
+        <v>361920.94</v>
+      </c>
+      <c r="G20" s="10">
+        <v>11095041.26</v>
+      </c>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10">
+        <v>17235899.809999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>133</v>
       </c>
-      <c r="B21" s="11">
-        <v>68358.460000000006</v>
-      </c>
-      <c r="C21" s="11">
-        <v>119901.07999999999</v>
-      </c>
-      <c r="D21" s="11">
-        <v>34011.11</v>
-      </c>
-      <c r="E21" s="11">
-        <v>46541.51</v>
-      </c>
-      <c r="F21" s="11">
-        <v>4154423.41</v>
-      </c>
-      <c r="G21" s="11">
-        <v>223389.52</v>
-      </c>
-      <c r="H21" s="11">
-        <v>209424.03</v>
-      </c>
-      <c r="I21" s="11">
-        <v>9936.26</v>
-      </c>
-      <c r="J21" s="11">
-        <v>717627.31</v>
-      </c>
-      <c r="K21" s="11">
-        <v>17120107.120000001</v>
-      </c>
-      <c r="L21" s="11">
-        <v>660.69</v>
-      </c>
-      <c r="M21" s="11">
-        <v>0</v>
-      </c>
-      <c r="N21" s="11">
-        <v>22704380.5</v>
+      <c r="B21" s="10">
+        <v>45620006.619999997</v>
+      </c>
+      <c r="C21" s="10">
+        <v>1054403.6399999999</v>
+      </c>
+      <c r="D21" s="10">
+        <v>2254540.5099999998</v>
+      </c>
+      <c r="E21" s="10">
+        <v>46378341.789999999</v>
+      </c>
+      <c r="F21" s="10">
+        <v>2360751.1800000002</v>
+      </c>
+      <c r="G21" s="10">
+        <v>78802971.510000005</v>
+      </c>
+      <c r="H21" s="10">
+        <v>191709.19</v>
+      </c>
+      <c r="I21" s="10">
+        <v>176662724.44</v>
       </c>
     </row>
   </sheetData>
